--- a/DLMauHS.xlsx
+++ b/DLMauHS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CMND</t>
   </si>
@@ -36,10 +36,22 @@
     <t>Ngaysinh</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>Lê Văn Thọ</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sơn</t>
+  </si>
+  <si>
+    <t>Trần Dần</t>
+  </si>
+  <si>
+    <t>Đặng Luân</t>
+  </si>
+  <si>
+    <t>Ma Văn Đạt</t>
+  </si>
+  <si>
+    <t>Trần Kháng</t>
   </si>
 </sst>
 </file>
@@ -358,16 +370,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -389,10 +401,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>123456784</v>
+        <v>123456789</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -401,24 +413,92 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>40909</v>
+        <v>37257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>11</v>
+        <v>123456788</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>43466</v>
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>123456787</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>37257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>123456786</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>456789123</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>37936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>456789124</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>37955</v>
       </c>
     </row>
   </sheetData>
